--- a/Test/data/phone_data/20k.xlsx
+++ b/Test/data/phone_data/20k.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shampad\Desktop\QUPS\Communicator-main\Test\data\phone_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sompod\Desktop\QUPS\Communicator-main\Test\data\phone_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F624F4-9B20-4DE5-BBF4-0D6169A87D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2C350A-A7A4-4721-B5ED-D5686950604B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="3780" windowWidth="18015" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="345">
   <si>
     <t>Mobile Numbers</t>
   </si>
@@ -1057,6 +1057,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Whatsapp</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1380,7 @@
   <dimension ref="A1:K347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,6 +1395,9 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/Test/data/phone_data/20k.xlsx
+++ b/Test/data/phone_data/20k.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Communicator-main\Test\data\phone_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B5A7BA-D1D1-4679-ABE4-1AEBFB872C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4869BDA1-8E51-4E7A-B006-FD7111FAE517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="S1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -384,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,9 +405,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1521239970</v>
-      </c>
+      <c r="A2">
+        <v>1623738815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1979757902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1710651289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1784095490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>170000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Test/data/phone_data/20k.xlsx
+++ b/Test/data/phone_data/20k.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Communicator-main\Test\data\phone_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4869BDA1-8E51-4E7A-B006-FD7111FAE517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A43DBB-FEC0-4EA7-B3A1-25E62AD5455A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,12 +26,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <t>Mobile Numbers</t>
   </si>
   <si>
     <t>Whatsapp</t>
+  </si>
+  <si>
+    <t>1705569764</t>
   </si>
 </sst>
 </file>
@@ -384,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,35 +408,54 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1623738815</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1979757902</v>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1710651289</v>
+      <c r="A4" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1784095490</v>
+      <c r="A5" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>170000001</v>
+      <c r="A6" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7"/>
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8"/>
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -446,7 +468,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
